--- a/salary_after.xlsx
+++ b/salary_after.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E28699B-B056-41D6-A341-CE9DF526987D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B44D0F6-4F52-4648-99D3-10863B6467A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1837" yWindow="1477" windowWidth="20040" windowHeight="14003" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="52670" yWindow="1470" windowWidth="26720" windowHeight="18670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,21 +47,6 @@
     <t>기본급</t>
   </si>
   <si>
-    <t>초과근무시간(시간)</t>
-  </si>
-  <si>
-    <t>직책수당(원)</t>
-  </si>
-  <si>
-    <t>자격증수당(원)</t>
-  </si>
-  <si>
-    <t>위험수당(원)</t>
-  </si>
-  <si>
-    <t>수당합계(원)</t>
-  </si>
-  <si>
     <t>E001</t>
   </si>
   <si>
@@ -138,10 +123,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>직책수당(원)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>시간당수당</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -159,6 +140,25 @@
   </si>
   <si>
     <t>부장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초과근무시간</t>
+  </si>
+  <si>
+    <t>직책수당</t>
+  </si>
+  <si>
+    <t>자격증수당</t>
+  </si>
+  <si>
+    <t>위험수당</t>
+  </si>
+  <si>
+    <t>수당합계</t>
+  </si>
+  <si>
+    <t>직책수당</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -548,19 +548,20 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:L7"/>
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="6.6875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.4375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.4375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.5625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.625" customWidth="1"/>
     <col min="10" max="10" width="4.4375" customWidth="1"/>
     <col min="11" max="11" width="10.1875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.5625" bestFit="1" customWidth="1"/>
@@ -580,36 +581,36 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A2" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2">
         <v>3000000</v>
@@ -626,7 +627,7 @@
       </c>
       <c r="I2" s="2"/>
       <c r="K2" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="L2" s="2">
         <v>300000</v>
@@ -634,13 +635,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A3" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2">
         <v>3200000</v>
@@ -657,7 +658,7 @@
       </c>
       <c r="I3" s="2"/>
       <c r="K3" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="L3" s="2">
         <v>400000</v>
@@ -665,13 +666,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A4" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2">
         <v>3100000</v>
@@ -688,7 +689,7 @@
       </c>
       <c r="I4" s="2"/>
       <c r="K4" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="L4" s="2">
         <v>600000</v>
@@ -696,13 +697,13 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A5" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2">
         <v>2800000</v>
@@ -719,7 +720,7 @@
       </c>
       <c r="I5" s="2"/>
       <c r="K5" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="L5" s="2">
         <v>800000</v>
@@ -727,13 +728,13 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A6" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2">
         <v>2900000</v>
@@ -752,13 +753,13 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A7" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2">
         <v>3500000</v>
@@ -775,7 +776,7 @@
       </c>
       <c r="I7" s="2"/>
       <c r="K7" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="L7" s="2">
         <v>10000</v>
@@ -783,13 +784,13 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A8" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2">
         <v>3400000</v>
@@ -808,13 +809,13 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A9" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2">
         <v>3300000</v>
@@ -833,13 +834,13 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A10" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D10" s="2">
         <v>3000000</v>
@@ -858,13 +859,13 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A11" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D11" s="2">
         <v>3100000</v>
